--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\IO\FsSpreadsheet\tests\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EE117D-4835-4F86-808D-B1B3BFF52FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1E11E-B158-4269-8B17-EBBA9EEB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
-    <sheet name="Tableless" sheetId="2" r:id="rId2"/>
+    <sheet name="Tableless" sheetId="4" r:id="rId2"/>
     <sheet name="WithTable_Duplicate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -105,57 +105,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -203,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,10 +461,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -536,7 +495,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>45213</v>
       </c>
       <c r="D2" t="s">
@@ -553,7 +512,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>45214</v>
       </c>
       <c r="E3" t="s">
@@ -567,7 +526,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>45215</v>
       </c>
     </row>
@@ -578,7 +537,7 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>45216</v>
       </c>
     </row>
@@ -591,14 +550,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C74DDE2-CDF5-40D3-9F40-97EED0BE5279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C16715-9795-4E17-A00E-CEB100B9AE9C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -624,7 +586,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>45213</v>
       </c>
       <c r="D2" t="s">
@@ -641,7 +603,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>45214</v>
       </c>
       <c r="E3" t="s">
@@ -655,25 +617,23 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>45215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -685,7 +645,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -711,7 +671,7 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>45213</v>
       </c>
       <c r="E5" t="s">
@@ -728,7 +688,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>45214</v>
       </c>
       <c r="F6" t="s">
@@ -742,7 +702,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>45215</v>
       </c>
     </row>
@@ -753,7 +713,7 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>45216</v>
       </c>
     </row>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1E11E-B158-4269-8B17-EBBA9EEB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F9D54-932C-42D1-99C4-F317F23D1382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Numbers</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">ARCtrl Column </t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -134,12 +140,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F35DFCD-684D-4897-BCDF-ACA1AF16DB19}" name="MyTable" displayName="MyTable" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{7F35DFCD-684D-4897-BCDF-ACA1AF16DB19}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F35DFCD-684D-4897-BCDF-ACA1AF16DB19}" name="MyTable" displayName="MyTable" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{7F35DFCD-684D-4897-BCDF-ACA1AF16DB19}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{21BC8978-DC9D-429A-A6D7-18D3522FC91B}" name="Numbers"/>
     <tableColumn id="2" xr3:uid="{AF5013C7-C714-4444-8A50-9BC69A5FCD46}" name="Strings"/>
     <tableColumn id="3" xr3:uid="{0220EA02-C278-4844-8BB0-A01A5FFCAF29}" name="DateTime"/>
+    <tableColumn id="6" xr3:uid="{EB1FB87D-82FA-49D3-A90F-CDEE6DD1ED86}" name="Boolean" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{1055AA42-6413-429F-AEFF-69EEC86BA5A3}" name="ARCtrl Column"/>
     <tableColumn id="5" xr3:uid="{0078777C-91D5-411D-98A9-96CB97DEE4E5}" name="ARCtrl Column "/>
   </tableColumns>
@@ -148,14 +155,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6B6D04E-FF54-492E-A53B-1709D42A64EA}" name="MyOtherTable" displayName="MyOtherTable" ref="B4:F8" totalsRowShown="0">
-  <autoFilter ref="B4:F8" xr:uid="{B6B6D04E-FF54-492E-A53B-1709D42A64EA}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{346005A6-836C-4746-A330-D49033DC5AEA}" name="Numbers"/>
-    <tableColumn id="2" xr3:uid="{2EFBA7E3-50D8-4A5C-98F0-4239F95B7232}" name="Strings"/>
-    <tableColumn id="3" xr3:uid="{4C949830-6A44-4283-90B5-CD7096A9747D}" name="DateTime" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{5386B69A-8A06-47D7-BE06-3C8277111948}" name="ARCtrl Column"/>
-    <tableColumn id="5" xr3:uid="{B550AAE8-E35A-435F-BB42-91A37485FF7B}" name="ARCtrl Column "/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4CF4FB5-98A2-402A-952B-578F000EE8E8}" name="MyOtherTable" displayName="MyOtherTable" ref="B4:G8" totalsRowShown="0">
+  <autoFilter ref="B4:G8" xr:uid="{D4CF4FB5-98A2-402A-952B-578F000EE8E8}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0B3786CC-5235-4859-8F59-62AE5D527DA0}" name="Numbers"/>
+    <tableColumn id="2" xr3:uid="{6F2B14C5-878C-4B3A-ACBB-343E10005AD2}" name="Strings"/>
+    <tableColumn id="3" xr3:uid="{10AAEDA6-B420-4861-89AB-39750FC7DAFB}" name="DateTime"/>
+    <tableColumn id="6" xr3:uid="{3CF61452-D1F1-4CDB-8372-5556C16AC303}" name="Boolean" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1A2CCF17-CCEC-4166-94DE-C50838A00FEC}" name="ARCtrl Column"/>
+    <tableColumn id="5" xr3:uid="{6B641BB1-9E87-4B0A-AB90-A8A5BB93F66A}" name="ARCtrl Column "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC43657-EBC1-4D75-BCA0-007A51C07085}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +479,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,13 +490,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,14 +509,17 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,11 +529,14 @@
       <c r="C3" s="1">
         <v>45214</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -529,8 +546,11 @@
       <c r="C4" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -539,6 +559,9 @@
       </c>
       <c r="C5" s="1">
         <v>45216</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -551,18 +574,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C16715-9795-4E17-A00E-CEB100B9AE9C}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,13 +597,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -589,14 +616,17 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -606,11 +636,14 @@
       <c r="C3" s="1">
         <v>45214</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,8 +653,11 @@
       <c r="C4" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -630,6 +666,9 @@
       </c>
       <c r="C5" s="1">
         <v>45216</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -639,15 +678,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D9FAE-57A3-47F3-B8B0-88F62793F167}">
-  <dimension ref="B4:F8"/>
+  <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -658,13 +697,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -674,14 +716,17 @@
       <c r="D5" s="1">
         <v>45213</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -691,11 +736,14 @@
       <c r="D6" s="1">
         <v>45214</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -705,8 +753,11 @@
       <c r="D7" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -715,6 +766,9 @@
       </c>
       <c r="D8" s="1">
         <v>45216</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F9D54-932C-42D1-99C4-F317F23D1382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D519B4-9EB9-4270-AC51-4E9C555EC60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,12 +473,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
@@ -526,8 +530,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>45214</v>
+      <c r="C3" s="2">
+        <v>45214.75</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -543,8 +547,8 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
-        <v>45215</v>
+      <c r="C4" s="2">
+        <v>45215.833333333336</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D519B4-9EB9-4270-AC51-4E9C555EC60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F6A22-0824-4E43-AE04-176496A6F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC43657-EBC1-4D75-BCA0-007A51C07085}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,11 +684,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D9FAE-57A3-47F3-B8B0-88F62793F167}">
   <dimension ref="B4:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -737,8 +740,8 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
-        <v>45214</v>
+      <c r="D6" s="2">
+        <v>45214.75</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -754,8 +757,8 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>45215</v>
+      <c r="D7" s="2">
+        <v>45215.833333333336</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F6A22-0824-4E43-AE04-176496A6F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE64C58-D250-4F5C-9030-D8C8F36DA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -580,13 +580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C16715-9795-4E17-A00E-CEB100B9AE9C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,8 +637,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>45214</v>
+      <c r="C3" s="2">
+        <v>45214.75</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -654,8 +654,8 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
-        <v>45215</v>
+      <c r="C4" s="2">
+        <v>45215.833333333336</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D9FAE-57A3-47F3-B8B0-88F62793F167}">
   <dimension ref="B4:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\IO\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE64C58-D250-4F5C-9030-D8C8F36DA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01576CE0-678A-4608-B9EF-37C8B90F67AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -115,20 +115,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -473,10 +474,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -513,7 +514,7 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -533,7 +534,7 @@
       <c r="C3" s="2">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -550,7 +551,7 @@
       <c r="C4" s="2">
         <v>45215.833333333336</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -564,7 +565,7 @@
       <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -580,11 +581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C16715-9795-4E17-A00E-CEB100B9AE9C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -620,7 +621,7 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -640,7 +641,7 @@
       <c r="C3" s="2">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -657,7 +658,7 @@
       <c r="C4" s="2">
         <v>45215.833333333336</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -671,7 +672,7 @@
       <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -684,11 +685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D9FAE-57A3-47F3-B8B0-88F62793F167}">
   <dimension ref="B4:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -723,7 +724,7 @@
       <c r="D5" s="1">
         <v>45213</v>
       </c>
-      <c r="E5" s="1" t="b">
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -743,7 +744,7 @@
       <c r="D6" s="2">
         <v>45214.75</v>
       </c>
-      <c r="E6" s="1" t="b">
+      <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -760,7 +761,7 @@
       <c r="D7" s="2">
         <v>45215.833333333336</v>
       </c>
-      <c r="E7" s="1" t="b">
+      <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -774,7 +775,7 @@
       <c r="D8" s="1">
         <v>45216</v>
       </c>
-      <c r="E8" s="1" t="b">
+      <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\IO\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01576CE0-678A-4608-B9EF-37C8B90F67AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9724B-E1DD-4CE8-B902-5C9BA3C810AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -119,10 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,10 +474,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -514,7 +514,7 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -534,7 +534,7 @@
       <c r="C3" s="2">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="3" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -551,13 +551,13 @@
       <c r="C4" s="2">
         <v>45215.833333333336</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>4.2690000000000001</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -565,7 +565,7 @@
       <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="3" t="b">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -581,11 +581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C16715-9795-4E17-A00E-CEB100B9AE9C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -621,7 +621,7 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -641,7 +641,7 @@
       <c r="C3" s="2">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="3" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -658,13 +658,13 @@
       <c r="C4" s="2">
         <v>45215.833333333336</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>4.2690000000000001</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
       <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="3" t="b">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -685,11 +685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D9FAE-57A3-47F3-B8B0-88F62793F167}">
   <dimension ref="B4:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -724,7 +724,7 @@
       <c r="D5" s="1">
         <v>45213</v>
       </c>
-      <c r="E5" s="3" t="b">
+      <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -744,7 +744,7 @@
       <c r="D6" s="2">
         <v>45214.75</v>
       </c>
-      <c r="E6" s="3" t="b">
+      <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -761,13 +761,13 @@
       <c r="D7" s="2">
         <v>45215.833333333336</v>
       </c>
-      <c r="E7" s="3" t="b">
+      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" s="3">
+        <v>4.2690000000000001</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -775,7 +775,7 @@
       <c r="D8" s="1">
         <v>45216</v>
       </c>
-      <c r="E8" s="3" t="b">
+      <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\TestUtils\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9724B-E1DD-4CE8-B902-5C9BA3C810AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5AFA2D-2952-483B-A3DB-C8DA3584682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="4395" yWindow="0" windowWidth="24510" windowHeight="15045" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
